--- a/Destination Excel files/sourcefile.xlsx
+++ b/Destination Excel files/sourcefile.xlsx
@@ -7,15 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>First</t>
   </si>
@@ -26,22 +25,10 @@
     <t>Third</t>
   </si>
   <si>
-    <t>First1</t>
-  </si>
-  <si>
     <t>Second1</t>
   </si>
   <si>
     <t>Third1</t>
-  </si>
-  <si>
-    <t>First2</t>
-  </si>
-  <si>
-    <t>Second2</t>
-  </si>
-  <si>
-    <t>Third2</t>
   </si>
   <si>
     <t>Match</t>
@@ -392,57 +379,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -461,35 +400,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
